--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MihaiBucur\Desktop\Facultate anul 3\VVSS\Labs\Lab1\VVSS\Docs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D076A7-E959-4C5D-A626-75D679C6100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B1A88-515C-46C1-B350-D1A1003BA3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -103,31 +103,6 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Functionalitate </t>
   </si>
   <si>
@@ -137,34 +112,12 @@
     <t>avem metoda care creeaza un task</t>
   </si>
   <si>
-    <t>semnatura constructor task: new Task(String description, Date startDate, Date endDate, int repeating)</t>
-  </si>
-  <si>
     <t xml:space="preserve">vom alege valoarea lui description </t>
   </si>
   <si>
     <t>decription este un string cu lungimea intre 1 si 255 de caractere</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> task = new Task(String description, Date start, Date end, Int repeat)</t>
-    </r>
-  </si>
-  <si>
     <t>EC Identification</t>
   </si>
   <si>
@@ -231,9 +184,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>record created</t>
-  </si>
-  <si>
     <t>end &gt;= 1970-01-01</t>
   </si>
   <si>
@@ -247,9 +197,6 @@
   </si>
   <si>
     <t>Second</t>
-  </si>
-  <si>
-    <t>recored created</t>
   </si>
   <si>
     <t>Third</t>
@@ -380,9 +327,6 @@
   </si>
   <si>
     <t>TC3_ECP</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>TC4_ECP</t>
@@ -563,6 +507,31 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>semnatur adaugare task: void saveTask(Task task)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>void saveTask(Task task)</t>
+    </r>
+  </si>
+  <si>
+    <t>task saved</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1613,9 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1752,25 +1723,19 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1782,12 +1747,12 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10"/>
     </row>
@@ -1795,7 +1760,7 @@
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O22" s="7"/>
     </row>
@@ -1805,17 +1770,17 @@
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2809,7 +2774,9 @@
   </sheetPr>
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2841,7 +2808,7 @@
     <row r="2" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="79" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2852,13 +2819,13 @@
     <row r="4" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
       <c r="G5" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -2870,31 +2837,31 @@
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="I6" s="77" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>31</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
       <c r="M6" s="77" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="71"/>
     </row>
@@ -2903,11 +2870,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
@@ -2924,7 +2891,7 @@
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="74"/>
@@ -2943,24 +2910,24 @@
       <c r="C9" s="75"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="75"/>
       <c r="I9" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M9" s="77" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N9" s="71"/>
     </row>
@@ -2969,11 +2936,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -2990,7 +2957,7 @@
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="14"/>
       <c r="G11" s="12">
@@ -3000,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J11" s="19">
         <v>45262</v>
@@ -3012,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N11" s="71"/>
     </row>
@@ -3021,11 +2988,11 @@
         <v>6</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G12" s="20">
         <v>2</v>
@@ -3034,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12" s="22">
         <v>45028</v>
@@ -3046,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N12" s="71"/>
     </row>
@@ -3056,7 +3023,7 @@
       </c>
       <c r="C13" s="74"/>
       <c r="D13" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="12">
@@ -3066,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J13" s="19">
         <v>37367</v>
@@ -3078,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="N13" s="71"/>
     </row>
@@ -3096,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J14" s="22">
         <v>45773</v>
@@ -3108,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N14" s="71"/>
     </row>
@@ -3117,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3151,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3169,7 +3136,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3187,10 +3154,10 @@
     </row>
     <row r="22" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4209,7 +4176,9 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4243,7 +4212,7 @@
     <row r="2" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="79" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -4254,13 +4223,13 @@
     <row r="4" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="89" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="71"/>
       <c r="E5" s="24"/>
       <c r="G5" s="81" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -4274,35 +4243,35 @@
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E6" s="25"/>
       <c r="G6" s="73" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
       <c r="O6" s="83" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P6" s="71"/>
     </row>
@@ -4311,29 +4280,29 @@
         <v>1</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G7" s="75"/>
       <c r="H7" s="75"/>
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O7" s="77" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P7" s="71"/>
     </row>
@@ -4341,7 +4310,7 @@
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G8" s="20">
         <v>1</v>
@@ -4351,7 +4320,7 @@
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="22">
@@ -4364,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P8" s="71"/>
     </row>
@@ -4372,7 +4341,7 @@
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G9" s="12">
         <v>2</v>
@@ -4382,10 +4351,10 @@
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19">
         <v>37368</v>
@@ -4397,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="72" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="P9" s="71"/>
     </row>
@@ -4405,7 +4374,7 @@
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G10" s="20">
         <v>3</v>
@@ -4415,10 +4384,10 @@
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L10" s="22">
         <v>37369</v>
@@ -4430,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P10" s="71"/>
     </row>
@@ -4448,10 +4417,10 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L11" s="19">
         <v>37370</v>
@@ -4463,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="P11" s="71"/>
     </row>
@@ -4523,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G15" s="12">
         <v>8</v>
@@ -4545,7 +4514,7 @@
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12">
         <v>9</v>
@@ -4564,7 +4533,7 @@
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G17" s="12">
         <v>10</v>
@@ -4583,7 +4552,7 @@
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G18" s="12">
         <v>11</v>
@@ -4602,7 +4571,7 @@
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G19" s="12">
         <v>12</v>
@@ -4621,7 +4590,7 @@
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4629,45 +4598,45 @@
         <v>4</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G26" s="85"/>
       <c r="H26" s="86"/>
@@ -5708,8 +5677,8 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5738,7 +5707,7 @@
     <row r="2" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="90" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -5754,25 +5723,25 @@
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="73" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
       <c r="J4" s="94" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K4" s="70"/>
     </row>
@@ -5782,22 +5751,22 @@
       <c r="D5" s="93"/>
       <c r="E5" s="91"/>
       <c r="F5" s="36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -5805,16 +5774,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G6" s="39">
         <v>45379</v>
@@ -5826,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5838,13 +5807,13 @@
       </c>
       <c r="C7" s="115"/>
       <c r="D7" s="40" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G7" s="42">
         <v>45379</v>
@@ -5856,10 +5825,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5868,13 +5837,13 @@
       </c>
       <c r="C8" s="115"/>
       <c r="D8" s="44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G8" s="46">
         <v>45403</v>
@@ -5886,14 +5855,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
@@ -5901,16 +5868,16 @@
       </c>
       <c r="C9" s="115"/>
       <c r="D9" s="40" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F9" s="116" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G9" s="118" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H9" s="42">
         <v>45380</v>
@@ -5919,10 +5886,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5931,10 +5898,10 @@
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>93</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="42">
@@ -5947,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5959,13 +5926,13 @@
       </c>
       <c r="C11" s="115"/>
       <c r="D11" s="44" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G11" s="46">
         <v>45379</v>
@@ -5977,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5989,13 +5956,13 @@
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="44" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G12" s="42">
         <v>45379</v>
@@ -6007,10 +5974,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6019,13 +5986,13 @@
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="44" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G13" s="49">
         <v>45379</v>
@@ -6037,10 +6004,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6108,7 +6075,7 @@
     </row>
     <row r="19" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="56" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -6127,23 +6094,23 @@
     </row>
     <row r="21" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="109" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
       <c r="F21" s="111"/>
       <c r="G21" s="63" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H21" s="109" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="110"/>
       <c r="K21" s="110"/>
       <c r="L21" s="111"/>
       <c r="M21" s="109" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="N21" s="110"/>
       <c r="O21" s="110"/>
@@ -6151,47 +6118,47 @@
     </row>
     <row r="22" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="112" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I22" s="102"/>
       <c r="J22" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="73" t="s">
-        <v>110</v>
-      </c>
       <c r="P22" s="97" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6213,7 +6180,7 @@
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C24" s="65">
         <v>8</v>
@@ -6231,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I24" s="71"/>
       <c r="J24" s="2">
@@ -6244,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="68" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N24" s="2">
         <v>4</v>
